--- a/Code/Results/Cases/Case_2_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.839849523119</v>
+        <v>20.90688753949975</v>
       </c>
       <c r="C2">
-        <v>6.071528067818909</v>
+        <v>3.997979950226144</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.557002327907228</v>
+        <v>10.14393310931719</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.155520063247274</v>
+        <v>3.764652333072513</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.65801517902824</v>
+        <v>17.07269501980243</v>
       </c>
       <c r="L2">
-        <v>7.21512537327412</v>
+        <v>10.46822765296803</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.08736561119809</v>
+        <v>25.03386987323274</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.90763968844962</v>
+        <v>20.75441429926147</v>
       </c>
       <c r="C3">
-        <v>5.663992565503171</v>
+        <v>3.80623211594624</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.441677244771757</v>
+        <v>10.15001766818052</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.165008558445573</v>
+        <v>3.767945280939767</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.98008430902957</v>
+        <v>16.97529159512723</v>
       </c>
       <c r="L3">
-        <v>7.028731144483125</v>
+        <v>10.46364078319557</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.17024633901568</v>
+        <v>25.05826834335842</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.32576960545417</v>
+        <v>20.66570705687212</v>
       </c>
       <c r="C4">
-        <v>5.401947071168141</v>
+        <v>3.682616775326101</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.37374848233746</v>
+        <v>10.15539604784312</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.17097425319858</v>
+        <v>3.770071436352936</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.55908980426922</v>
+        <v>16.91947593065195</v>
       </c>
       <c r="L4">
-        <v>6.916815092610783</v>
+        <v>10.46277526412736</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.22646637744886</v>
+        <v>25.07497701631549</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.08653861162147</v>
+        <v>20.63082581103081</v>
       </c>
       <c r="C5">
-        <v>5.292150737344743</v>
+        <v>3.630791559048212</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.346798768623279</v>
+        <v>10.15800101487925</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.173442427332421</v>
+        <v>3.770964178342714</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.38653958823411</v>
+        <v>16.89775209215</v>
       </c>
       <c r="L5">
-        <v>6.871877388169325</v>
+        <v>10.46291384799606</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.2506646330967</v>
+        <v>25.08221998782327</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.04669577093135</v>
+        <v>20.62511127539577</v>
       </c>
       <c r="C6">
-        <v>5.273736282734947</v>
+        <v>3.622099307181902</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.342368187205179</v>
+        <v>10.15845853047861</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.17385456191439</v>
+        <v>3.771114009744205</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.35783441522441</v>
+        <v>16.89420705716173</v>
       </c>
       <c r="L6">
-        <v>6.864456897614763</v>
+        <v>10.46296654909204</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.25475908499345</v>
+        <v>25.08344888015277</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.32255141489442</v>
+        <v>20.66523146225206</v>
       </c>
       <c r="C7">
-        <v>5.400478556665556</v>
+        <v>3.681923676416929</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.373382056876836</v>
+        <v>10.155429505946</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.171007387111622</v>
+        <v>3.770083369502166</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.55676645548682</v>
+        <v>16.91917879675009</v>
       </c>
       <c r="L7">
-        <v>6.916206294263259</v>
+        <v>10.46277514311865</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.22678757405464</v>
+        <v>25.07507294077299</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.52053988091767</v>
+        <v>20.85331551164203</v>
       </c>
       <c r="C8">
-        <v>5.933436844235893</v>
+        <v>3.933101192837127</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.51664470878097</v>
+        <v>10.14569034617835</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.158763928588499</v>
+        <v>3.765766157927485</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.42535847877754</v>
+        <v>17.03829343608913</v>
       </c>
       <c r="L8">
-        <v>7.150350410067303</v>
+        <v>10.46624171559004</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.11480356506605</v>
+        <v>25.04192356970257</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.78530863596551</v>
+        <v>21.25958528409797</v>
       </c>
       <c r="C9">
-        <v>6.886915273923837</v>
+        <v>4.378010401369797</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.820134669346331</v>
+        <v>10.13961045426548</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.135766186646336</v>
+        <v>3.758123073558493</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.08408548071945</v>
+        <v>17.30267086466359</v>
       </c>
       <c r="L9">
-        <v>7.628291681618619</v>
+        <v>10.48847727322421</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.94009994524709</v>
+        <v>24.99064863533861</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38926681349706</v>
+        <v>21.57869935840002</v>
       </c>
       <c r="C10">
-        <v>7.534996120003067</v>
+        <v>4.674812185435102</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.05653039154708</v>
+        <v>10.14305702170447</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.119337791784595</v>
+        <v>3.753003233820488</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.26898363083462</v>
+        <v>17.51441960340582</v>
       </c>
       <c r="L10">
-        <v>7.989477333953047</v>
+        <v>10.51415607236994</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.84312992400226</v>
+        <v>24.96137699703131</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.10518335399829</v>
+        <v>21.72785009081207</v>
       </c>
       <c r="C11">
-        <v>7.819337581745342</v>
+        <v>4.803156534719953</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.1669579905436</v>
+        <v>10.14633598241523</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.111928457571896</v>
+        <v>3.750780371392715</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.800061532726</v>
+        <v>17.61425593503502</v>
       </c>
       <c r="L11">
-        <v>8.155791548375843</v>
+        <v>10.52784671203778</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.80685149637391</v>
+        <v>24.9498908449589</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.37430933595808</v>
+        <v>21.78485849471003</v>
       </c>
       <c r="C12">
-        <v>7.925589882561662</v>
+        <v>4.850788678130723</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.20919083540787</v>
+        <v>10.14782282809634</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.109128450083745</v>
+        <v>3.749953798856196</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.00002100445093</v>
+        <v>17.65253962174751</v>
       </c>
       <c r="L12">
-        <v>8.219053989819578</v>
+        <v>10.53331776675391</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.79433761649321</v>
+        <v>24.94580493691137</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.31643563649288</v>
+        <v>21.7725579405893</v>
       </c>
       <c r="C13">
-        <v>7.902768318108776</v>
+        <v>4.840573473345378</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.200076663988886</v>
+        <v>10.14749172047605</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.109731285564657</v>
+        <v>3.750131142475366</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.95700693221542</v>
+        <v>17.644273732483</v>
       </c>
       <c r="L13">
-        <v>8.205416709746391</v>
+        <v>10.53212676396936</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.79697659387086</v>
+        <v>24.94667317587246</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.12736395085403</v>
+        <v>21.73252987827893</v>
       </c>
       <c r="C14">
-        <v>7.828106992895063</v>
+        <v>4.807094728737246</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.170424149406897</v>
+        <v>10.14645339794511</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.111698005329531</v>
+        <v>3.750712065118237</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.81653523690539</v>
+        <v>17.61739613834113</v>
       </c>
       <c r="L14">
-        <v>8.16099052088525</v>
+        <v>10.52829108660568</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.80579684290176</v>
+        <v>24.94954940784966</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.01129552048135</v>
+        <v>21.70807898889448</v>
       </c>
       <c r="C15">
-        <v>7.782192321869524</v>
+        <v>4.786461581427422</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.152315437006323</v>
+        <v>10.14584929602898</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.112903316941475</v>
+        <v>3.751069870837489</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.73034317158932</v>
+        <v>17.60099424708483</v>
       </c>
       <c r="L15">
-        <v>8.133815008772965</v>
+        <v>10.52597889085025</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.81136198346816</v>
+        <v>24.95134553381692</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.34220244043781</v>
+        <v>21.56902838196234</v>
       </c>
       <c r="C16">
-        <v>7.516209964578755</v>
+        <v>4.66628944371977</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.049371812509625</v>
+        <v>10.14287709340002</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.119823010530534</v>
+        <v>3.753150631890674</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.23411528746006</v>
+        <v>17.50796342216508</v>
       </c>
       <c r="L16">
-        <v>7.978648017762241</v>
+        <v>10.51330160404864</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.84566652123458</v>
+        <v>24.96216450837301</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.92820213740246</v>
+        <v>21.48471430107307</v>
       </c>
       <c r="C17">
-        <v>7.350412722537876</v>
+        <v>4.590851229239498</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.986958703783835</v>
+        <v>10.14149141261487</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.124082074214309</v>
+        <v>3.754454241263337</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.92764592207127</v>
+        <v>17.45177229752534</v>
       </c>
       <c r="L17">
-        <v>7.883965605115824</v>
+        <v>10.50603761563322</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.8687835780691</v>
+        <v>24.96927060996213</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68878462269079</v>
+        <v>21.43659681830347</v>
       </c>
       <c r="C18">
-        <v>7.254059048320272</v>
+        <v>4.54683355458184</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.951332093762582</v>
+        <v>10.14085552343346</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.126538029988544</v>
+        <v>3.755214042324805</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.75062374889795</v>
+        <v>17.41978477938743</v>
       </c>
       <c r="L18">
-        <v>7.829695740391129</v>
+        <v>10.50204882891392</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.88281078234514</v>
+        <v>24.9735300361997</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.60750029349153</v>
+        <v>21.42037128902776</v>
       </c>
       <c r="C19">
-        <v>7.2212626534211</v>
+        <v>4.531822464245597</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.939316253521306</v>
+        <v>10.14066791906735</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.127370747942772</v>
+        <v>3.755473018101692</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.69055923189444</v>
+        <v>17.40901220677522</v>
       </c>
       <c r="L19">
-        <v>7.811353677193776</v>
+        <v>10.50073086435645</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.88768289078822</v>
+        <v>24.97500176080593</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.9724074175191</v>
+        <v>21.49365090429801</v>
       </c>
       <c r="C20">
-        <v>7.36816415780615</v>
+        <v>4.598946787765819</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.993574567386995</v>
+        <v>10.14162225158957</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.123628066084608</v>
+        <v>3.754314435581497</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.96034780407826</v>
+        <v>17.45771975725318</v>
       </c>
       <c r="L20">
-        <v>7.894025225512502</v>
+        <v>10.50679130640704</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.86624641315107</v>
+        <v>24.96849632902349</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.18295229064594</v>
+        <v>21.74427311385483</v>
       </c>
       <c r="C21">
-        <v>7.850074691288661</v>
+        <v>4.816954613636132</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.179122486394605</v>
+        <v>10.14675173213681</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.11112020564141</v>
+        <v>3.750541022874912</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.85782621013038</v>
+        <v>17.62527799063812</v>
       </c>
       <c r="L21">
-        <v>8.174031895836793</v>
+        <v>10.52940995586065</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.80317207040715</v>
+        <v>24.94869742914835</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.96262880931731</v>
+        <v>21.91112704685464</v>
       </c>
       <c r="C22">
-        <v>8.156791697655304</v>
+        <v>4.95378384946221</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.302818909777756</v>
+        <v>10.15153270814067</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.102977189403455</v>
+        <v>3.74816330203755</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.43771098403694</v>
+        <v>17.7375590446742</v>
       </c>
       <c r="L22">
-        <v>8.358685088088681</v>
+        <v>10.5458624839241</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.76913726342988</v>
+        <v>24.93729469530083</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.54753958286564</v>
+        <v>21.82180913346091</v>
       </c>
       <c r="C23">
-        <v>7.993814241535542</v>
+        <v>4.881275239741512</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.236576055903445</v>
+        <v>10.14885062189226</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>2.107321628993971</v>
+        <v>3.749424275715606</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.12881835812668</v>
+        <v>17.67738803481143</v>
       </c>
       <c r="L23">
-        <v>8.259980561883603</v>
+        <v>10.53692946101503</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.78660934554513</v>
+        <v>24.94323973620724</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.95242658040655</v>
+        <v>21.48960955429667</v>
       </c>
       <c r="C24">
-        <v>7.360141962815297</v>
+        <v>4.595288801062564</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.990582739563207</v>
+        <v>10.14156259849868</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.123833299968652</v>
+        <v>3.754377609518395</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.94556586393934</v>
+        <v>17.45502991966177</v>
       </c>
       <c r="L24">
-        <v>7.889476758740503</v>
+        <v>10.50644997899591</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.86739117736737</v>
+        <v>24.96884583933344</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.18274130716107</v>
+        <v>21.14589021792937</v>
       </c>
       <c r="C25">
-        <v>6.638459090397676</v>
+        <v>4.262871585804485</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.73565674250752</v>
+        <v>10.13986338287135</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>2.141893874884505</v>
+        <v>3.760103265981166</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.64094858341448</v>
+        <v>17.22797793960634</v>
       </c>
       <c r="L25">
-        <v>7.497148666519515</v>
+        <v>10.48081533344863</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.98216699426792</v>
+        <v>25.00304681839252</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.90688753949975</v>
+        <v>18.83984952311896</v>
       </c>
       <c r="C2">
-        <v>3.997979950226144</v>
+        <v>6.07152806781901</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.14393310931719</v>
+        <v>6.557002327907218</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.764652333072513</v>
+        <v>2.155520063247675</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.07269501980243</v>
+        <v>14.6580151790282</v>
       </c>
       <c r="L2">
-        <v>10.46822765296803</v>
+        <v>7.215125373274088</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.03386987323274</v>
+        <v>18.08736561119803</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.75441429926147</v>
+        <v>17.90763968844966</v>
       </c>
       <c r="C3">
-        <v>3.80623211594624</v>
+        <v>5.663992565503266</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.15001766818052</v>
+        <v>6.441677244771843</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.767945280939767</v>
+        <v>2.165008558445572</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.97529159512723</v>
+        <v>13.9800843090296</v>
       </c>
       <c r="L3">
-        <v>10.46364078319557</v>
+        <v>7.02873114448312</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>25.05826834335842</v>
+        <v>18.1702463390158</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.66570705687212</v>
+        <v>17.32576960545421</v>
       </c>
       <c r="C4">
-        <v>3.682616775326101</v>
+        <v>5.401947071168114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.15539604784312</v>
+        <v>6.373748482337469</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.770071436352936</v>
+        <v>2.17097425319858</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.91947593065195</v>
+        <v>13.55908980426923</v>
       </c>
       <c r="L4">
-        <v>10.46277526412736</v>
+        <v>6.916815092610765</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>25.07497701631549</v>
+        <v>18.22646637744895</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.63082581103081</v>
+        <v>17.08653861162147</v>
       </c>
       <c r="C5">
-        <v>3.630791559048212</v>
+        <v>5.292150737344596</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.15800101487925</v>
+        <v>6.346798768623321</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.770964178342714</v>
+        <v>2.173442427332422</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.89775209215</v>
+        <v>13.38653958823416</v>
       </c>
       <c r="L5">
-        <v>10.46291384799606</v>
+        <v>6.871877388169382</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>25.08221998782327</v>
+        <v>18.2506646330968</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.62511127539577</v>
+        <v>17.0466957709313</v>
       </c>
       <c r="C6">
-        <v>3.622099307181902</v>
+        <v>5.273736282735028</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.15845853047861</v>
+        <v>6.342368187205236</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.771114009744205</v>
+        <v>2.173854561914128</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.89420705716173</v>
+        <v>13.35783441522435</v>
       </c>
       <c r="L6">
-        <v>10.46296654909204</v>
+        <v>6.864456897614768</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>25.08344888015277</v>
+        <v>18.25475908499337</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.66523146225206</v>
+        <v>17.32255141489437</v>
       </c>
       <c r="C7">
-        <v>3.681923676416929</v>
+        <v>5.400478556665626</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.155429505946</v>
+        <v>6.37338205687685</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.770083369502166</v>
+        <v>2.171007387111488</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.91917879675009</v>
+        <v>13.55676645548678</v>
       </c>
       <c r="L7">
-        <v>10.46277514311865</v>
+        <v>6.916206294263229</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>25.07507294077299</v>
+        <v>18.22678757405462</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.85331551164203</v>
+        <v>18.52053988091769</v>
       </c>
       <c r="C8">
-        <v>3.933101192837127</v>
+        <v>5.933436844235749</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.14569034617835</v>
+        <v>6.516644708781009</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.765766157927485</v>
+        <v>2.158763928588496</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.03829343608913</v>
+        <v>14.42535847877761</v>
       </c>
       <c r="L8">
-        <v>10.46624171559004</v>
+        <v>7.15035041006733</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.04192356970257</v>
+        <v>18.11480356506613</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.25958528409797</v>
+        <v>20.7853086359655</v>
       </c>
       <c r="C9">
-        <v>4.378010401369797</v>
+        <v>6.886915273923953</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.13961045426548</v>
+        <v>6.820134669346325</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.758123073558493</v>
+        <v>2.135766186646198</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.30267086466359</v>
+        <v>16.08408548071946</v>
       </c>
       <c r="L9">
-        <v>10.48847727322421</v>
+        <v>7.628291681618594</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.99064863533861</v>
+        <v>17.94009994524702</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.57869935840002</v>
+        <v>22.38926681349707</v>
       </c>
       <c r="C10">
-        <v>4.674812185435102</v>
+        <v>7.534996120003304</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.14305702170447</v>
+        <v>7.056530391547133</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.753003233820488</v>
+        <v>2.119337791784596</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.51441960340582</v>
+        <v>17.26898363083461</v>
       </c>
       <c r="L10">
-        <v>10.51415607236994</v>
+        <v>7.989477333952995</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.96137699703131</v>
+        <v>17.84312992400226</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.72785009081207</v>
+        <v>23.10518335399827</v>
       </c>
       <c r="C11">
-        <v>4.803156534719953</v>
+        <v>7.819337581745341</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.14633598241523</v>
+        <v>7.166957990543618</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.750780371392715</v>
+        <v>2.111928457571765</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.61425593503502</v>
+        <v>17.80006153272599</v>
       </c>
       <c r="L11">
-        <v>10.52784671203778</v>
+        <v>8.155791548375857</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.9498908449589</v>
+        <v>17.80685149637394</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.78485849471003</v>
+        <v>23.37430933595807</v>
       </c>
       <c r="C12">
-        <v>4.850788678130723</v>
+        <v>7.925589882561662</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.14782282809634</v>
+        <v>7.209190835407851</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.749953798856196</v>
+        <v>2.109128450083612</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.65253962174751</v>
+        <v>18.00002100445092</v>
       </c>
       <c r="L12">
-        <v>10.53331776675391</v>
+        <v>8.21905398981956</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.94580493691137</v>
+        <v>17.79433761649319</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.7725579405893</v>
+        <v>23.31643563649286</v>
       </c>
       <c r="C13">
-        <v>4.840573473345378</v>
+        <v>7.90276831810879</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.14749172047605</v>
+        <v>7.200076663988883</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.750131142475366</v>
+        <v>2.109731285564659</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.644273732483</v>
+        <v>17.95700693221541</v>
       </c>
       <c r="L13">
-        <v>10.53212676396936</v>
+        <v>8.205416709746375</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.94667317587246</v>
+        <v>17.79697659387082</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.73252987827893</v>
+        <v>23.127363950854</v>
       </c>
       <c r="C14">
-        <v>4.807094728737246</v>
+        <v>7.828106992894927</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.14645339794511</v>
+        <v>7.170424149406897</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.750712065118237</v>
+        <v>2.111698005329401</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.61739613834113</v>
+        <v>17.81653523690539</v>
       </c>
       <c r="L14">
-        <v>10.52829108660568</v>
+        <v>8.160990520885271</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.94954940784966</v>
+        <v>17.80579684290171</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.70807898889448</v>
+        <v>23.01129552048138</v>
       </c>
       <c r="C15">
-        <v>4.786461581427422</v>
+        <v>7.78219232186948</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.14584929602898</v>
+        <v>7.152315437006303</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.751069870837489</v>
+        <v>2.112903316941343</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.60099424708483</v>
+        <v>17.73034317158932</v>
       </c>
       <c r="L15">
-        <v>10.52597889085025</v>
+        <v>8.133815008772952</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.95134553381692</v>
+        <v>17.81136198346826</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.56902838196234</v>
+        <v>22.3422024404378</v>
       </c>
       <c r="C16">
-        <v>4.66628944371977</v>
+        <v>7.516209964578787</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.14287709340002</v>
+        <v>7.049371812509604</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.753150631890674</v>
+        <v>2.119823010530676</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.50796342216508</v>
+        <v>17.23411528746004</v>
       </c>
       <c r="L16">
-        <v>10.51330160404864</v>
+        <v>7.978648017762239</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.96216450837301</v>
+        <v>17.84566652123465</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48471430107307</v>
+        <v>21.92820213740248</v>
       </c>
       <c r="C17">
-        <v>4.590851229239498</v>
+        <v>7.350412722538024</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.14149141261487</v>
+        <v>6.986958703783877</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.754454241263337</v>
+        <v>2.124082074214307</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.45177229752534</v>
+        <v>16.92764592207127</v>
       </c>
       <c r="L17">
-        <v>10.50603761563322</v>
+        <v>7.883965605115842</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.96927060996213</v>
+        <v>17.868783578069</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.43659681830347</v>
+        <v>21.68878462269083</v>
       </c>
       <c r="C18">
-        <v>4.54683355458184</v>
+        <v>7.254059048320362</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.14085552343346</v>
+        <v>6.951332093762545</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.755214042324805</v>
+        <v>2.126538029988811</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.41978477938743</v>
+        <v>16.75062374889797</v>
       </c>
       <c r="L18">
-        <v>10.50204882891392</v>
+        <v>7.829695740391099</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.9735300361997</v>
+        <v>17.88281078234527</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.42037128902776</v>
+        <v>21.60750029349155</v>
       </c>
       <c r="C19">
-        <v>4.531822464245597</v>
+        <v>7.221262653421014</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.14066791906735</v>
+        <v>6.939316253521306</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.755473018101692</v>
+        <v>2.127370747943039</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.40901220677522</v>
+        <v>16.69055923189445</v>
       </c>
       <c r="L19">
-        <v>10.50073086435645</v>
+        <v>7.811353677193813</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.97500176080593</v>
+        <v>17.88768289078822</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.49365090429801</v>
+        <v>21.97240741751912</v>
       </c>
       <c r="C20">
-        <v>4.598946787765819</v>
+        <v>7.368164157806224</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.14162225158957</v>
+        <v>6.993574567386875</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.754314435581497</v>
+        <v>2.123628066084606</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.45771975725318</v>
+        <v>16.96034780407829</v>
       </c>
       <c r="L20">
-        <v>10.50679130640704</v>
+        <v>7.894025225512452</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.96849632902349</v>
+        <v>17.86624641315114</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.74427311385483</v>
+        <v>23.18295229064587</v>
       </c>
       <c r="C21">
-        <v>4.816954613636132</v>
+        <v>7.850074691288627</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.14675173213681</v>
+        <v>7.179122486394597</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.750541022874912</v>
+        <v>2.111120205641671</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.62527799063812</v>
+        <v>17.85782621013038</v>
       </c>
       <c r="L21">
-        <v>10.52940995586065</v>
+        <v>8.174031895836782</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.94869742914835</v>
+        <v>17.80317207040717</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.91112704685464</v>
+        <v>23.96262880931733</v>
       </c>
       <c r="C22">
-        <v>4.95378384946221</v>
+        <v>8.156791697655445</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.15153270814067</v>
+        <v>7.302818909777788</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.74816330203755</v>
+        <v>2.102977189403059</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.7375590446742</v>
+        <v>18.43771098403694</v>
       </c>
       <c r="L22">
-        <v>10.5458624839241</v>
+        <v>8.358685088088693</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.93729469530083</v>
+        <v>17.76913726342988</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.82180913346091</v>
+        <v>23.54753958286561</v>
       </c>
       <c r="C23">
-        <v>4.881275239741512</v>
+        <v>7.993814241535629</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.14885062189226</v>
+        <v>7.236576055903438</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.749424275715606</v>
+        <v>2.107321628994361</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.67738803481143</v>
+        <v>18.12881835812667</v>
       </c>
       <c r="L23">
-        <v>10.53692946101503</v>
+        <v>8.259980561883577</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.94323973620724</v>
+        <v>17.78660934554528</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.48960955429667</v>
+        <v>21.95242658040655</v>
       </c>
       <c r="C24">
-        <v>4.595288801062564</v>
+        <v>7.360141962815109</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.14156259849868</v>
+        <v>6.990582739563221</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.754377609518395</v>
+        <v>2.123833299968519</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.45502991966177</v>
+        <v>16.94556586393933</v>
       </c>
       <c r="L24">
-        <v>10.50644997899591</v>
+        <v>7.889476758740536</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.96884583933344</v>
+        <v>17.86739117736735</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.14589021792937</v>
+        <v>20.18274130716105</v>
       </c>
       <c r="C25">
-        <v>4.262871585804485</v>
+        <v>6.638459090397619</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.13986338287135</v>
+        <v>6.735656742507587</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.760103265981166</v>
+        <v>2.141893874884632</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.22797793960634</v>
+        <v>15.64094858341445</v>
       </c>
       <c r="L25">
-        <v>10.48081533344863</v>
+        <v>7.497148666519501</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.00304681839252</v>
+        <v>17.98216699426782</v>
       </c>
       <c r="O25">
         <v>0</v>
